--- a/team3 project proposal/WBS.xlsx
+++ b/team3 project proposal/WBS.xlsx
@@ -11,8 +11,23 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B7">
+      <text>
+        <t xml:space="preserve">DataBase : NoSQL</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
   <si>
     <t>프로젝트 시작기간</t>
   </si>
@@ -44,6 +59,9 @@
     <t>Kotlin</t>
   </si>
   <si>
+    <t>Firebase</t>
+  </si>
+  <si>
     <t>EVerywhere WBS</t>
   </si>
   <si>
@@ -158,7 +176,7 @@
     <t>27일</t>
   </si>
   <si>
-    <t>메인</t>
+    <t>메인페이지</t>
   </si>
   <si>
     <t>7일</t>
@@ -356,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -417,27 +435,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -452,6 +449,19 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
     </border>
     <border>
       <bottom style="thin">
@@ -470,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="60">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -482,9 +492,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -498,13 +505,14 @@
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -524,17 +532,14 @@
     <xf borderId="3" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="8" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="8" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -549,7 +554,6 @@
     <xf borderId="1" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -571,23 +575,19 @@
     <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -611,46 +611,28 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="8" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="10" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -888,7 +870,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>44227.0</v>
       </c>
       <c r="C2" s="3"/>
@@ -897,42 +879,49 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11"/>
+      <c r="B7" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -952,44 +941,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="13"/>
       <c r="G1" s="3"/>
       <c r="H1" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
@@ -998,7 +987,7 @@
       <c r="M2" s="19"/>
       <c r="N2" s="13"/>
       <c r="O2" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
@@ -1007,7 +996,7 @@
       <c r="T2" s="19"/>
       <c r="U2" s="13"/>
       <c r="V2" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W2" s="19"/>
       <c r="X2" s="19"/>
@@ -1016,7 +1005,7 @@
       <c r="AA2" s="19"/>
       <c r="AB2" s="13"/>
       <c r="AC2" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AD2" s="19"/>
       <c r="AE2" s="19"/>
@@ -1025,7 +1014,7 @@
       <c r="AH2" s="19"/>
       <c r="AI2" s="13"/>
       <c r="AJ2" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK2" s="19"/>
       <c r="AL2" s="19"/>
@@ -1034,7 +1023,7 @@
       <c r="AO2" s="19"/>
       <c r="AP2" s="13"/>
       <c r="AQ2" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR2" s="19"/>
       <c r="AS2" s="19"/>
@@ -1044,852 +1033,852 @@
       <c r="AW2" s="13"/>
     </row>
     <row r="3">
-      <c r="A3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="B3" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="C3" s="19"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23">
+      <c r="D3" s="21"/>
+      <c r="E3" s="22">
         <v>44186.0</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="22">
         <v>44196.0</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="25" t="s">
+      <c r="G3" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="J3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="L3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="M3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="N3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI3" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP3" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW3" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10"/>
+      <c r="B4" s="27">
+        <v>43831.0</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="30">
+        <v>44186.0</v>
+      </c>
+      <c r="F4" s="30">
+        <v>44196.0</v>
+      </c>
+      <c r="G4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="V3" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="X3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z3" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA3" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB3" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC3" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD3" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG3" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH3" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI3" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ3" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK3" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN3" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO3" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP3" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ3" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="AR3" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="AU3" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="AV3" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="AW3" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29">
-        <v>43831.0</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="32">
-        <v>44186.0</v>
-      </c>
-      <c r="F4" s="32">
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="U4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AP4" s="33"/>
+      <c r="AW4" s="34"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="10"/>
+      <c r="B5" s="27">
+        <v>43832.0</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="30">
+        <v>44191.0</v>
+      </c>
+      <c r="F5" s="30">
         <v>44196.0</v>
       </c>
-      <c r="G4" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="U4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AW4" s="36"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29">
-        <v>43832.0</v>
-      </c>
-      <c r="C5" s="30" t="s">
+      <c r="G5" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="37"/>
+      <c r="U5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AP5" s="33"/>
+      <c r="AW5" s="34"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="10"/>
+      <c r="B6" s="27">
+        <v>43833.0</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="30">
+        <v>44191.0</v>
+      </c>
+      <c r="F6" s="30">
+        <v>44193.0</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="U6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AI6" s="33"/>
+      <c r="AP6" s="33"/>
+      <c r="AW6" s="34"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="11"/>
+      <c r="B7" s="38">
+        <v>43834.0</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="32">
-        <v>44191.0</v>
-      </c>
-      <c r="F5" s="32">
+      <c r="E7" s="41">
+        <v>44193.0</v>
+      </c>
+      <c r="F7" s="41">
         <v>44196.0</v>
       </c>
-      <c r="G5" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="39"/>
-      <c r="U5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AI5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AW5" s="36"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29">
-        <v>43833.0</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="32">
-        <v>44191.0</v>
-      </c>
-      <c r="F6" s="32">
-        <v>44193.0</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="U6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AI6" s="35"/>
-      <c r="AP6" s="35"/>
-      <c r="AW6" s="36"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41">
-        <v>43834.0</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="44">
-        <v>44193.0</v>
-      </c>
-      <c r="F7" s="44">
-        <v>44196.0</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AI7" s="35"/>
-      <c r="AP7" s="35"/>
-      <c r="AW7" s="36"/>
+      <c r="G7" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AP7" s="33"/>
+      <c r="AW7" s="34"/>
     </row>
     <row r="8">
-      <c r="A8" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="8" t="s">
         <v>46</v>
       </c>
+      <c r="B8" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23">
+      <c r="D8" s="21"/>
+      <c r="E8" s="22">
         <v>44197.0</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>44223.0</v>
       </c>
-      <c r="G8" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AI8" s="35"/>
-      <c r="AP8" s="35"/>
-      <c r="AW8" s="36"/>
+      <c r="G8" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AP8" s="33"/>
+      <c r="AW8" s="34"/>
     </row>
     <row r="9">
-      <c r="A9" s="28"/>
-      <c r="B9" s="47">
+      <c r="A9" s="10"/>
+      <c r="B9" s="43">
         <v>43862.0</v>
       </c>
-      <c r="C9" s="48" t="s">
-        <v>48</v>
+      <c r="C9" s="44" t="s">
+        <v>49</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="45">
         <v>44197.0</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="45">
         <v>44203.0</v>
       </c>
-      <c r="G9" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AI9" s="35"/>
-      <c r="AP9" s="35"/>
-      <c r="AW9" s="36"/>
+      <c r="G9" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AI9" s="33"/>
+      <c r="AP9" s="33"/>
+      <c r="AW9" s="34"/>
     </row>
     <row r="10">
-      <c r="A10" s="28"/>
-      <c r="B10" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="48" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="47" t="s">
         <v>51</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>52</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="45">
         <v>44197.0</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="45">
         <v>44203.0</v>
       </c>
-      <c r="G10" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AI10" s="35"/>
-      <c r="AP10" s="35"/>
-      <c r="AW10" s="36"/>
+      <c r="G10" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AI10" s="33"/>
+      <c r="AP10" s="33"/>
+      <c r="AW10" s="34"/>
     </row>
     <row r="11">
-      <c r="A11" s="28"/>
-      <c r="B11" s="52">
+      <c r="A11" s="10"/>
+      <c r="B11" s="48">
         <v>43863.0</v>
       </c>
-      <c r="C11" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="30">
         <v>44197.0</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="30">
         <v>44201.0</v>
       </c>
-      <c r="G11" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AI11" s="35"/>
-      <c r="AP11" s="35"/>
-      <c r="AW11" s="36"/>
+      <c r="G11" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AI11" s="33"/>
+      <c r="AP11" s="33"/>
+      <c r="AW11" s="34"/>
     </row>
     <row r="12">
-      <c r="A12" s="28"/>
-      <c r="B12" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="48" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="47" t="s">
         <v>55</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>56</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="45">
         <v>44204.0</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="45">
         <v>44214.0</v>
       </c>
-      <c r="G12" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AI12" s="35"/>
-      <c r="AP12" s="35"/>
-      <c r="AW12" s="36"/>
+      <c r="G12" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AI12" s="33"/>
+      <c r="AP12" s="33"/>
+      <c r="AW12" s="34"/>
     </row>
     <row r="13">
-      <c r="A13" s="28"/>
-      <c r="B13" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="53" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="C13" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="30">
         <v>44217.0</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="30">
         <v>44221.0</v>
       </c>
-      <c r="G13" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="N13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AI13" s="35"/>
-      <c r="AP13" s="35"/>
-      <c r="AW13" s="36"/>
+      <c r="G13" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="AB13" s="33"/>
+      <c r="AI13" s="33"/>
+      <c r="AP13" s="33"/>
+      <c r="AW13" s="34"/>
     </row>
     <row r="14">
-      <c r="A14" s="28"/>
-      <c r="B14" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="48" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="47" t="s">
         <v>59</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>60</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="45">
         <v>44197.0</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="45">
         <v>44201.0</v>
       </c>
-      <c r="G14" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AI14" s="35"/>
-      <c r="AP14" s="35"/>
-      <c r="AW14" s="36"/>
+      <c r="G14" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AI14" s="33"/>
+      <c r="AP14" s="33"/>
+      <c r="AW14" s="34"/>
     </row>
     <row r="15">
-      <c r="A15" s="28"/>
-      <c r="B15" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="53" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="32">
+      <c r="C15" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="30">
         <v>44223.0</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="30">
         <v>44223.0</v>
       </c>
-      <c r="G15" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="N15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AI15" s="35"/>
-      <c r="AP15" s="35"/>
-      <c r="AW15" s="36"/>
+      <c r="G15" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AI15" s="33"/>
+      <c r="AP15" s="33"/>
+      <c r="AW15" s="34"/>
     </row>
     <row r="16">
-      <c r="A16" s="28"/>
-      <c r="B16" s="47">
+      <c r="A16" s="10"/>
+      <c r="B16" s="43">
         <v>43864.0</v>
       </c>
-      <c r="C16" s="48" t="s">
-        <v>63</v>
+      <c r="C16" s="44" t="s">
+        <v>64</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="45">
         <v>44202.0</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="45">
         <v>44206.0</v>
       </c>
-      <c r="G16" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="N16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AI16" s="35"/>
-      <c r="AP16" s="35"/>
-      <c r="AW16" s="36"/>
+      <c r="G16" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AI16" s="33"/>
+      <c r="AP16" s="33"/>
+      <c r="AW16" s="34"/>
     </row>
     <row r="17">
-      <c r="A17" s="28"/>
-      <c r="B17" s="47">
+      <c r="A17" s="10"/>
+      <c r="B17" s="43">
         <v>43865.0</v>
       </c>
-      <c r="C17" s="48" t="s">
-        <v>64</v>
+      <c r="C17" s="44" t="s">
+        <v>65</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="45">
         <v>44207.0</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="45">
         <v>44211.0</v>
       </c>
-      <c r="G17" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="N17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AI17" s="35"/>
-      <c r="AP17" s="35"/>
-      <c r="AW17" s="36"/>
+      <c r="G17" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AI17" s="33"/>
+      <c r="AP17" s="33"/>
+      <c r="AW17" s="34"/>
     </row>
     <row r="18">
-      <c r="A18" s="28"/>
-      <c r="B18" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="48" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="47" t="s">
         <v>66</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="45">
         <v>44212.0</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="45">
         <v>44216.0</v>
       </c>
-      <c r="G18" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="N18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AI18" s="35"/>
-      <c r="AP18" s="35"/>
-      <c r="AW18" s="36"/>
+      <c r="G18" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AI18" s="33"/>
+      <c r="AP18" s="33"/>
+      <c r="AW18" s="34"/>
     </row>
     <row r="19">
-      <c r="A19" s="28"/>
-      <c r="B19" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="48" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="47" t="s">
         <v>68</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>69</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="45">
         <v>44215.0</v>
       </c>
-      <c r="F19" s="57">
+      <c r="F19" s="45">
         <v>44221.0</v>
       </c>
-      <c r="G19" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="N19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AI19" s="35"/>
-      <c r="AP19" s="35"/>
-      <c r="AW19" s="36"/>
+      <c r="G19" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AI19" s="33"/>
+      <c r="AP19" s="33"/>
+      <c r="AW19" s="34"/>
     </row>
     <row r="20">
-      <c r="A20" s="40"/>
-      <c r="B20" s="58">
+      <c r="A20" s="11"/>
+      <c r="B20" s="51">
         <v>43866.0</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="41">
+        <v>44198.0</v>
+      </c>
+      <c r="F20" s="41">
+        <v>44223.0</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="N20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="AB20" s="33"/>
+      <c r="AI20" s="33"/>
+      <c r="AP20" s="33"/>
+      <c r="AW20" s="34"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22">
+        <v>44224.0</v>
+      </c>
+      <c r="F21" s="22">
+        <v>44226.0</v>
+      </c>
+      <c r="G21" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="60">
-        <v>44198.0</v>
-      </c>
-      <c r="F20" s="60">
-        <v>44223.0</v>
-      </c>
-      <c r="G20" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="N20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AI20" s="35"/>
-      <c r="AP20" s="35"/>
-      <c r="AW20" s="36"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="62">
+      <c r="N21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AI21" s="33"/>
+      <c r="AP21" s="33"/>
+      <c r="AW21" s="34"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="10"/>
+      <c r="B22" s="27">
+        <v>43891.0</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="30">
         <v>44224.0</v>
       </c>
-      <c r="F21" s="62">
+      <c r="F22" s="30">
+        <v>44224.0</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="N22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="AB22" s="33"/>
+      <c r="AI22" s="33"/>
+      <c r="AP22" s="33"/>
+      <c r="AW22" s="34"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="10"/>
+      <c r="B23" s="27">
+        <v>43892.0</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="30">
+        <v>44225.0</v>
+      </c>
+      <c r="F23" s="30">
+        <v>44225.0</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="N23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AI23" s="33"/>
+      <c r="AP23" s="33"/>
+      <c r="AW23" s="34"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="10"/>
+      <c r="B24" s="27">
+        <v>43893.0</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="30">
+        <v>44224.0</v>
+      </c>
+      <c r="F24" s="30">
+        <v>44225.0</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="N24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AI24" s="33"/>
+      <c r="AP24" s="33"/>
+      <c r="AW24" s="34"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="38">
+        <v>43894.0</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="41">
         <v>44226.0</v>
       </c>
-      <c r="G21" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AI21" s="35"/>
-      <c r="AP21" s="35"/>
-      <c r="AW21" s="36"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29">
-        <v>43891.0</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="32">
-        <v>44224.0</v>
-      </c>
-      <c r="F22" s="32">
-        <v>44224.0</v>
-      </c>
-      <c r="G22" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="N22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AI22" s="35"/>
-      <c r="AP22" s="35"/>
-      <c r="AW22" s="36"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29">
-        <v>43892.0</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="32">
-        <v>44225.0</v>
-      </c>
-      <c r="F23" s="32">
-        <v>44225.0</v>
-      </c>
-      <c r="G23" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="N23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AI23" s="35"/>
-      <c r="AP23" s="35"/>
-      <c r="AW23" s="36"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29">
-        <v>43893.0</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="32">
-        <v>44224.0</v>
-      </c>
-      <c r="F24" s="32">
-        <v>44225.0</v>
-      </c>
-      <c r="G24" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="N24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AI24" s="35"/>
-      <c r="AP24" s="35"/>
-      <c r="AW24" s="36"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="41">
-        <v>43894.0</v>
-      </c>
-      <c r="C25" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="44">
+      <c r="F25" s="41">
         <v>44226.0</v>
       </c>
-      <c r="F25" s="44">
-        <v>44226.0</v>
-      </c>
-      <c r="G25" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="N25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AI25" s="35"/>
-      <c r="AP25" s="35"/>
-      <c r="AW25" s="36"/>
+      <c r="G25" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="N25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AI25" s="33"/>
+      <c r="AP25" s="33"/>
+      <c r="AW25" s="34"/>
     </row>
     <row r="26">
-      <c r="A26" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="21" t="s">
+      <c r="A26" s="8" t="s">
         <v>78</v>
       </c>
+      <c r="B26" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C26" s="19"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
-      <c r="N26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AI26" s="35"/>
-      <c r="AP26" s="35"/>
-      <c r="AW26" s="36"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
+      <c r="N26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AI26" s="33"/>
+      <c r="AP26" s="33"/>
+      <c r="AW26" s="34"/>
     </row>
     <row r="27">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29">
+      <c r="A27" s="10"/>
+      <c r="B27" s="27">
         <v>43922.0</v>
       </c>
-      <c r="C27" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="65"/>
-      <c r="N27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="AB27" s="35"/>
-      <c r="AI27" s="35"/>
-      <c r="AP27" s="35"/>
-      <c r="AW27" s="36"/>
+      <c r="C27" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="55"/>
+      <c r="N27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="AB27" s="33"/>
+      <c r="AI27" s="33"/>
+      <c r="AP27" s="33"/>
+      <c r="AW27" s="34"/>
     </row>
     <row r="28">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41">
+      <c r="A28" s="11"/>
+      <c r="B28" s="38">
         <v>43923.0</v>
       </c>
-      <c r="C28" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="66"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="66"/>
-      <c r="Z28" s="66"/>
-      <c r="AA28" s="66"/>
-      <c r="AB28" s="68"/>
-      <c r="AC28" s="66"/>
-      <c r="AD28" s="66"/>
-      <c r="AE28" s="66"/>
-      <c r="AF28" s="66"/>
-      <c r="AG28" s="66"/>
-      <c r="AH28" s="66"/>
-      <c r="AI28" s="68"/>
-      <c r="AJ28" s="66"/>
-      <c r="AK28" s="66"/>
-      <c r="AL28" s="66"/>
-      <c r="AM28" s="66"/>
-      <c r="AN28" s="66"/>
-      <c r="AO28" s="66"/>
-      <c r="AP28" s="68"/>
-      <c r="AQ28" s="66"/>
-      <c r="AR28" s="66"/>
-      <c r="AS28" s="66"/>
-      <c r="AT28" s="66"/>
-      <c r="AU28" s="66"/>
-      <c r="AV28" s="66"/>
-      <c r="AW28" s="69"/>
+      <c r="C28" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="56"/>
+      <c r="AE28" s="56"/>
+      <c r="AF28" s="56"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="58"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
+      <c r="AM28" s="56"/>
+      <c r="AN28" s="56"/>
+      <c r="AO28" s="56"/>
+      <c r="AP28" s="58"/>
+      <c r="AQ28" s="56"/>
+      <c r="AR28" s="56"/>
+      <c r="AS28" s="56"/>
+      <c r="AT28" s="56"/>
+      <c r="AU28" s="56"/>
+      <c r="AV28" s="56"/>
+      <c r="AW28" s="59"/>
     </row>
     <row r="29">
       <c r="D29" s="3"/>
